--- a/Data_file/ob_stockFG10/PD01-Cost.xlsx
+++ b/Data_file/ob_stockFG10/PD01-Cost.xlsx
@@ -59,13 +59,13 @@
     <t>My Company: OB FIFO</t>
   </si>
   <si>
-    <t>FG20/Stock</t>
-  </si>
-  <si>
     <t>BOJ0001627</t>
   </si>
   <si>
     <t>NFG06-JIG-002</t>
+  </si>
+  <si>
+    <t>PD01/Stock</t>
   </si>
 </sst>
 </file>
@@ -441,12 +441,13 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -499,13 +500,13 @@
         <v>45723</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
       </c>
       <c r="H2">
         <v>1</v>
